--- a/data/directory.xlsx
+++ b/data/directory.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="67">
   <si>
     <t xml:space="preserve">Название</t>
   </si>
@@ -55,7 +55,7 @@
     <t xml:space="preserve">Презервативы полиуретановые Sagami Original 001 5'S</t>
   </si>
   <si>
-    <t xml:space="preserve">10002010/031018/0068606/1</t>
+    <t xml:space="preserve">10216170/270420/0110997</t>
   </si>
   <si>
     <t xml:space="preserve">Презервативы полиуретановые Sagami Original 002 1'S</t>
@@ -82,9 +82,6 @@
     <t xml:space="preserve">Презервативы полиуретановые Sagami Original 002 6'S Quick</t>
   </si>
   <si>
-    <t xml:space="preserve">10005023/280219/0018256/2</t>
-  </si>
-  <si>
     <t xml:space="preserve">Презервативы полиуретановые Sagami Original 002 12'S</t>
   </si>
   <si>
@@ -100,9 +97,6 @@
     <t xml:space="preserve">Презервативы латексные Sagami Xtreme 0.04mm 3'S</t>
   </si>
   <si>
-    <t xml:space="preserve">10130050/110915/0003823</t>
-  </si>
-  <si>
     <t xml:space="preserve">Презервативы латексные Sagami Xtreme 0.04mm 15'S</t>
   </si>
   <si>
@@ -178,7 +172,13 @@
     <t xml:space="preserve">Презервативы латексные Sagami Gold 10'S</t>
   </si>
   <si>
+    <t xml:space="preserve">Презервативы латексные Sagami Xtreme Feel UP 3'S</t>
+  </si>
+  <si>
     <t xml:space="preserve">Презервативы латексные Sagami Xtreme Feel UP 10'S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Презервативы латексные Sagami Xtreme Feel Long 10'S</t>
   </si>
   <si>
     <t xml:space="preserve">Sagami Original Гель-смазка (3 гр.)</t>
@@ -321,7 +321,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -332,6 +332,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -368,15 +372,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G41"/>
+  <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A17" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A31" activeCellId="0" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8359375" defaultRowHeight="11.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="61.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="61.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="15.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="11.17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="18.83"/>
@@ -408,8 +412,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="true" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+    <row r="2" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="1" t="n">
@@ -418,7 +422,7 @@
       <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="3" t="n">
+      <c r="D2" s="4" t="n">
         <v>4974234810161</v>
       </c>
       <c r="E2" s="1" t="n">
@@ -431,7 +435,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>10</v>
       </c>
@@ -441,7 +445,7 @@
       <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="3" t="n">
+      <c r="D3" s="4" t="n">
         <v>4974234619245</v>
       </c>
       <c r="E3" s="1" t="n">
@@ -454,7 +458,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>12</v>
       </c>
@@ -464,7 +468,7 @@
       <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="3" t="n">
+      <c r="D4" s="4" t="n">
         <v>4974234810000</v>
       </c>
       <c r="E4" s="1" t="n">
@@ -477,7 +481,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>14</v>
       </c>
@@ -487,7 +491,7 @@
       <c r="C5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="3" t="n">
+      <c r="D5" s="4" t="n">
         <v>4974234619023</v>
       </c>
       <c r="E5" s="1" t="n">
@@ -500,7 +504,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>16</v>
       </c>
@@ -510,7 +514,7 @@
       <c r="C6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="3" t="n">
+      <c r="D6" s="4" t="n">
         <v>4974234618002</v>
       </c>
       <c r="E6" s="1" t="n">
@@ -523,7 +527,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>18</v>
       </c>
@@ -533,7 +537,7 @@
       <c r="C7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="3" t="n">
+      <c r="D7" s="4" t="n">
         <v>4974234615001</v>
       </c>
       <c r="E7" s="1" t="n">
@@ -546,7 +550,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
         <v>19</v>
       </c>
@@ -556,22 +560,22 @@
       <c r="C8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="3" t="n">
+      <c r="D8" s="4" t="n">
         <v>4974234611010</v>
       </c>
       <c r="E8" s="1" t="n">
         <v>1001004</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="G8" s="2" t="n">
         <v>458</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B9" s="1" t="n">
         <v>10</v>
@@ -579,122 +583,122 @@
       <c r="C9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="3" t="n">
+      <c r="D9" s="4" t="n">
         <v>4974234616008</v>
       </c>
       <c r="E9" s="1" t="n">
         <v>1001005</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G9" s="2" t="n">
         <v>458</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="4" t="s">
-        <v>23</v>
+    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="B10" s="1" t="n">
         <v>10</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" s="3" t="n">
+        <v>23</v>
+      </c>
+      <c r="D10" s="4" t="n">
         <v>4974234619092</v>
       </c>
       <c r="E10" s="1" t="n">
         <v>1002026</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G10" s="2" t="n">
         <v>392</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B11" s="1" t="n">
         <v>10</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" s="3" t="n">
+        <v>23</v>
+      </c>
+      <c r="D11" s="4" t="n">
         <v>4974234600472</v>
       </c>
       <c r="E11" s="1" t="n">
         <v>1002022</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="G11" s="2" t="n">
         <v>392</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="3" t="n">
+        <v>23</v>
+      </c>
+      <c r="D12" s="4" t="n">
         <v>4974234600465</v>
       </c>
       <c r="E12" s="1" t="n">
         <v>1002007</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G12" s="2" t="n">
         <v>392</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B13" s="1" t="n">
         <v>10</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" s="3" t="n">
+        <v>23</v>
+      </c>
+      <c r="D13" s="4" t="n">
         <v>4974234101078</v>
       </c>
       <c r="E13" s="1" t="n">
         <v>1002008</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="G13" s="2" t="n">
         <v>392</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B14" s="1" t="n">
         <v>10</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" s="3" t="n">
+        <v>23</v>
+      </c>
+      <c r="D14" s="4" t="n">
         <v>4974234580521</v>
       </c>
       <c r="E14" s="1" t="n">
@@ -707,40 +711,40 @@
         <v>392</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B15" s="1" t="n">
         <v>10</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" s="3" t="n">
+        <v>23</v>
+      </c>
+      <c r="D15" s="4" t="n">
         <v>4974234522057</v>
       </c>
       <c r="E15" s="1" t="n">
         <v>1002016</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G15" s="2" t="n">
         <v>392</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B16" s="1" t="n">
         <v>10</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" s="3" t="n">
+        <v>23</v>
+      </c>
+      <c r="D16" s="4" t="n">
         <v>4974234522040</v>
       </c>
       <c r="E16" s="1" t="n">
@@ -753,132 +757,132 @@
         <v>392</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B17" s="1" t="n">
         <v>10</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" s="3" t="n">
+        <v>23</v>
+      </c>
+      <c r="D17" s="4" t="n">
         <v>4974234101405</v>
       </c>
       <c r="E17" s="1" t="n">
         <v>1002004</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="G17" s="2" t="n">
         <v>392</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B18" s="1" t="n">
         <v>10</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18" s="3" t="n">
+        <v>23</v>
+      </c>
+      <c r="D18" s="4" t="n">
         <v>4974234101283</v>
       </c>
       <c r="E18" s="1" t="n">
         <v>1002005</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G18" s="2" t="n">
         <v>392</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B19" s="1" t="n">
         <v>10</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D19" s="3" t="n">
+        <v>23</v>
+      </c>
+      <c r="D19" s="4" t="n">
         <v>4974234101351</v>
       </c>
       <c r="E19" s="1" t="n">
         <v>1002006</v>
       </c>
       <c r="F19" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G19" s="2" t="n">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="G19" s="2" t="n">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
-        <v>37</v>
-      </c>
       <c r="B20" s="1" t="n">
         <v>10</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D20" s="3" t="n">
+        <v>23</v>
+      </c>
+      <c r="D20" s="4" t="n">
         <v>4974234101337</v>
       </c>
       <c r="E20" s="1" t="n">
         <v>1002003</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G20" s="2" t="n">
         <v>392</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="5" t="s">
-        <v>38</v>
+    <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="6" t="s">
+        <v>36</v>
       </c>
       <c r="B21" s="1" t="n">
         <v>10</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D21" s="3" t="n">
+        <v>23</v>
+      </c>
+      <c r="D21" s="4" t="n">
         <v>4974234101320</v>
       </c>
       <c r="E21" s="1" t="n">
         <v>1002024</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G21" s="2" t="n">
         <v>392</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B22" s="1" t="n">
         <v>10</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D22" s="3" t="n">
+        <v>23</v>
+      </c>
+      <c r="D22" s="4" t="n">
         <v>4974234101238</v>
       </c>
       <c r="E22" s="1" t="n">
@@ -891,17 +895,17 @@
         <v>392</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B23" s="1" t="n">
         <v>10</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D23" s="3" t="n">
+        <v>23</v>
+      </c>
+      <c r="D23" s="4" t="n">
         <v>4974234101153</v>
       </c>
       <c r="E23" s="1" t="n">
@@ -914,308 +918,308 @@
         <v>392</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B24" s="1" t="n">
         <v>10</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D24" s="3" t="n">
+        <v>23</v>
+      </c>
+      <c r="D24" s="4" t="n">
         <v>4974234020997</v>
       </c>
       <c r="E24" s="1" t="n">
         <v>1002011</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G24" s="2" t="n">
         <v>392</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B25" s="1" t="n">
         <v>10</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D25" s="3" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" s="4" t="n">
         <v>4974234021031</v>
       </c>
       <c r="E25" s="1" t="n">
         <v>1002010</v>
       </c>
       <c r="F25" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G25" s="2" t="n">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="G25" s="2" t="n">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="5" t="s">
-        <v>45</v>
-      </c>
       <c r="B26" s="1" t="n">
         <v>10</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D26" s="3" t="n">
+        <v>23</v>
+      </c>
+      <c r="D26" s="4" t="n">
         <v>4974234021024</v>
       </c>
       <c r="E26" s="1" t="n">
         <v>1002025</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G26" s="2" t="n">
         <v>392</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B27" s="1" t="n">
         <v>10</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D27" s="3" t="n">
+        <v>23</v>
+      </c>
+      <c r="D27" s="4" t="n">
         <v>4974234550012</v>
       </c>
       <c r="E27" s="1" t="n">
         <v>1002018</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G27" s="2" t="n">
         <v>392</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B28" s="1" t="n">
         <v>10</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D28" s="3" t="n">
+        <v>23</v>
+      </c>
+      <c r="D28" s="4" t="n">
         <v>4974234021048</v>
       </c>
       <c r="E28" s="1" t="n">
         <v>1002021</v>
       </c>
       <c r="F28" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G28" s="2" t="n">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="G28" s="2" t="n">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
-        <v>50</v>
-      </c>
       <c r="B29" s="1" t="n">
         <v>10</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D29" s="3" t="n">
+        <v>23</v>
+      </c>
+      <c r="D29" s="4" t="n">
         <v>4974234020973</v>
       </c>
       <c r="E29" s="1" t="n">
         <v>1002019</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G29" s="2" t="n">
         <v>392</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B30" s="1" t="n">
         <v>10</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D30" s="3" t="n">
+        <v>23</v>
+      </c>
+      <c r="D30" s="4" t="n">
         <v>4974234062195</v>
       </c>
       <c r="E30" s="1" t="n">
         <v>1002020</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G30" s="2" t="n">
         <v>392</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="B31" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D31" s="4" t="n">
+        <v>4974234101016</v>
+      </c>
+      <c r="E31" s="1" t="n">
+        <v>1002027</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G31" s="2" t="n">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="B32" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D32" s="4" t="n">
+        <v>4974234101023</v>
+      </c>
+      <c r="E32" s="1" t="n">
+        <v>1002023</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G32" s="2" t="n">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="B31" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D31" s="3" t="n">
-        <v>4974234101023</v>
-      </c>
-      <c r="E31" s="1" t="n">
-        <v>1002023</v>
-      </c>
-      <c r="F31" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="G31" s="2" t="n">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
+      <c r="B33" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D33" s="4" t="n">
+        <v>4974234101047</v>
+      </c>
+      <c r="E33" s="1" t="n">
+        <v>1002028</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G33" s="2" t="n">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="s">
         <v>53</v>
-      </c>
-      <c r="B32" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D32" s="3" t="n">
-        <v>4974234522002</v>
-      </c>
-      <c r="E32" s="1" t="n">
-        <v>1003002</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G32" s="2" t="n">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="B33" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D33" s="3" t="n">
-        <v>4974234996513</v>
-      </c>
-      <c r="E33" s="1" t="n">
-        <v>1003001</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="G33" s="2" t="n">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
-        <v>57</v>
       </c>
       <c r="B34" s="1" t="n">
         <v>20</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D34" s="3" t="n">
-        <v>4974234996643</v>
+        <v>23</v>
+      </c>
+      <c r="D34" s="4" t="n">
+        <v>4974234522002</v>
       </c>
       <c r="E34" s="1" t="n">
-        <v>1003004</v>
+        <v>1003002</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G34" s="2" t="n">
         <v>392</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B35" s="1" t="n">
         <v>20</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D35" s="3" t="n">
-        <v>851674003084</v>
+        <v>23</v>
+      </c>
+      <c r="D35" s="4" t="n">
+        <v>4974234996513</v>
       </c>
       <c r="E35" s="1" t="n">
-        <v>3001007</v>
+        <v>1003001</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="G35" s="2" t="n">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B36" s="1" t="n">
         <v>20</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D36" s="3" t="n">
-        <v>851674003060</v>
+        <v>23</v>
+      </c>
+      <c r="D36" s="4" t="n">
+        <v>4974234996643</v>
       </c>
       <c r="E36" s="1" t="n">
-        <v>3001006</v>
+        <v>1003004</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="G36" s="2" t="n">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B37" s="1" t="n">
         <v>20</v>
@@ -1223,11 +1227,11 @@
       <c r="C37" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D37" s="3" t="n">
-        <v>851674003008</v>
+      <c r="D37" s="4" t="n">
+        <v>851674003084</v>
       </c>
       <c r="E37" s="1" t="n">
-        <v>3001002</v>
+        <v>3001007</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>60</v>
@@ -1236,9 +1240,9 @@
         <v>840</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B38" s="1" t="n">
         <v>20</v>
@@ -1246,11 +1250,11 @@
       <c r="C38" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D38" s="3" t="n">
-        <v>851674003015</v>
+      <c r="D38" s="4" t="n">
+        <v>851674003060</v>
       </c>
       <c r="E38" s="1" t="n">
-        <v>3001001</v>
+        <v>3001006</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>60</v>
@@ -1259,9 +1263,9 @@
         <v>840</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B39" s="1" t="n">
         <v>20</v>
@@ -1269,11 +1273,11 @@
       <c r="C39" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D39" s="3" t="n">
-        <v>851674003121</v>
+      <c r="D39" s="4" t="n">
+        <v>851674003008</v>
       </c>
       <c r="E39" s="1" t="n">
-        <v>3001003</v>
+        <v>3001002</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>60</v>
@@ -1282,9 +1286,9 @@
         <v>840</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B40" s="1" t="n">
         <v>20</v>
@@ -1292,11 +1296,11 @@
       <c r="C40" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D40" s="3" t="n">
-        <v>851674003039</v>
+      <c r="D40" s="4" t="n">
+        <v>851674003015</v>
       </c>
       <c r="E40" s="1" t="n">
-        <v>3001004</v>
+        <v>3001001</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>60</v>
@@ -1305,9 +1309,9 @@
         <v>840</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B41" s="1" t="n">
         <v>20</v>
@@ -1315,16 +1319,62 @@
       <c r="C41" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D41" s="3" t="n">
-        <v>851674003053</v>
+      <c r="D41" s="4" t="n">
+        <v>851674003121</v>
       </c>
       <c r="E41" s="1" t="n">
-        <v>3001005</v>
+        <v>3001003</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>60</v>
       </c>
       <c r="G41" s="2" t="n">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="B42" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D42" s="4" t="n">
+        <v>851674003039</v>
+      </c>
+      <c r="E42" s="1" t="n">
+        <v>3001004</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G42" s="2" t="n">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="B43" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D43" s="4" t="n">
+        <v>851674003053</v>
+      </c>
+      <c r="E43" s="1" t="n">
+        <v>3001005</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G43" s="2" t="n">
         <v>840</v>
       </c>
     </row>

--- a/data/directory.xlsx
+++ b/data/directory.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="79">
   <si>
     <t xml:space="preserve">Название</t>
   </si>
@@ -43,13 +43,16 @@
     <t xml:space="preserve">Код страны</t>
   </si>
   <si>
+    <t xml:space="preserve">Артикул WB</t>
+  </si>
+  <si>
     <t xml:space="preserve">Презервативы полиуретановые Sagami Original 001 1'S</t>
   </si>
   <si>
     <t xml:space="preserve">Малайзия</t>
   </si>
   <si>
-    <t xml:space="preserve">10002010/031018/0068606/0</t>
+    <t xml:space="preserve">10005030/160120/0009213</t>
   </si>
   <si>
     <t xml:space="preserve">Презервативы полиуретановые Sagami Original 001 5'S</t>
@@ -58,6 +61,12 @@
     <t xml:space="preserve">10216170/270420/0110997</t>
   </si>
   <si>
+    <t xml:space="preserve">Презервативы полиуретановые Sagami Original 001 10'S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10216170/071220/0323194</t>
+  </si>
+  <si>
     <t xml:space="preserve">Презервативы полиуретановые Sagami Original 002 1'S</t>
   </si>
   <si>
@@ -76,18 +85,33 @@
     <t xml:space="preserve">10013030/250718/0011755</t>
   </si>
   <si>
+    <t xml:space="preserve">Презервативы полиуретановые Sagami Original 002 3'S EXTRA LUB</t>
+  </si>
+  <si>
     <t xml:space="preserve">Презервативы полиуретановые Sagami Original 002 6'S</t>
   </si>
   <si>
     <t xml:space="preserve">Презервативы полиуретановые Sagami Original 002 6'S Quick</t>
   </si>
   <si>
+    <t xml:space="preserve">Презервативы полиуретановые Sagami Original 002 10'S</t>
+  </si>
+  <si>
     <t xml:space="preserve">Презервативы полиуретановые Sagami Original 002 12'S</t>
   </si>
   <si>
     <t xml:space="preserve">10005030/160419/0061352</t>
   </si>
   <si>
+    <t xml:space="preserve">Презервативы полиуретановые Sagami Original 002 12'S EXTRA LUB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Презервативы полиуретановые Sagami Original 002 L 12'S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10702070/140120/0007949</t>
+  </si>
+  <si>
     <t xml:space="preserve">Презервативы латексные Sagami Xtreme Superthin 1'S</t>
   </si>
   <si>
@@ -136,9 +160,15 @@
     <t xml:space="preserve">10013030/250718/0011756</t>
   </si>
   <si>
+    <t xml:space="preserve">Презервативы латексные Sagami Xtreme Cobra 1'S</t>
+  </si>
+  <si>
     <t xml:space="preserve">Презервативы латексные Sagami Xtreme Cobra 3'S</t>
   </si>
   <si>
+    <t xml:space="preserve">Презервативы латексные Sagami Xtreme Feel Fit 3'S</t>
+  </si>
+  <si>
     <t xml:space="preserve">Презервативы латексные Sagami Xtreme Energy 3'S</t>
   </si>
   <si>
@@ -181,13 +211,13 @@
     <t xml:space="preserve">Презервативы латексные Sagami Xtreme Feel Long 10'S</t>
   </si>
   <si>
-    <t xml:space="preserve">Sagami Original Гель-смазка (3 гр.)</t>
+    <t xml:space="preserve">Sagami Original Гель-смазка (3 гр)</t>
   </si>
   <si>
     <t xml:space="preserve">10130050/180516/0002253</t>
   </si>
   <si>
-    <t xml:space="preserve">Sagami Original Гель-смазка (60 гр.)</t>
+    <t xml:space="preserve">Sagami Original Гель-смазка (60 гр)</t>
   </si>
   <si>
     <t xml:space="preserve">10005022/170119/0002686/1</t>
@@ -214,13 +244,19 @@
     <t xml:space="preserve">Uberlube (100 мл) флакон-спрей лубрикант для интимной гигиены</t>
   </si>
   <si>
-    <t xml:space="preserve">Набор Uberlube Good-to-Go черного цвета (флакон 15 мл+кейс)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Набор Uberlube Good-to-Go серебристого цвета (флакон 15 мл+кейс)</t>
+    <t xml:space="preserve">Набор Uberlube Good-to-Go черного цвета (флакон 15 мл + кейс)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Набор Uberlube Good-to-Go серебристого цвета (флакон 15 мл + кейс)</t>
   </si>
   <si>
     <t xml:space="preserve">Набор Uberlube Good-to-Go (2 флакона 15 мл)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Концентрат феромонов</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4000001</t>
   </si>
 </sst>
 </file>
@@ -231,7 +267,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="000000"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="8"/>
       <name val="Arial"/>
@@ -262,12 +298,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="204"/>
     </font>
     <font>
       <sz val="8"/>
@@ -321,7 +351,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -346,10 +376,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -368,28 +394,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G43"/>
+  <dimension ref="A1:H55"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A17" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A31" activeCellId="0" sqref="A31"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A45" activeCellId="0" sqref="A45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8359375" defaultRowHeight="11.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.8359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="61.98"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="15.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="11.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="4.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="9.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="18.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="37.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="46.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="17.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="8.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="25.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="11.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="12.31"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="true" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -411,16 +438,19 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="2" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1" t="n">
         <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="4" t="n">
         <v>4974234810161</v>
@@ -429,21 +459,24 @@
         <v>1001007</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G2" s="2" t="n">
         <v>458</v>
       </c>
+      <c r="H2" s="1" t="n">
+        <v>11259809</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3" s="1" t="n">
         <v>10</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" s="4" t="n">
         <v>4974234619245</v>
@@ -452,171 +485,195 @@
         <v>1001000</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G3" s="2" t="n">
         <v>458</v>
       </c>
+      <c r="H3" s="1" t="n">
+        <v>5845702</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B4" s="1" t="n">
         <v>10</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>4974234810000</v>
+        <v>4974234100149</v>
       </c>
       <c r="E4" s="1" t="n">
-        <v>1001001</v>
+        <v>1001008</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G4" s="2" t="n">
         <v>458</v>
       </c>
+      <c r="H4" s="1" t="n">
+        <v>18275955</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B5" s="1" t="n">
         <v>10</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>4974234619023</v>
+        <v>4974234810000</v>
       </c>
       <c r="E5" s="1" t="n">
-        <v>1001002</v>
+        <v>1001001</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G5" s="2" t="n">
         <v>458</v>
       </c>
+      <c r="H5" s="1" t="n">
+        <v>5845703</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B6" s="1" t="n">
         <v>10</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>4974234618002</v>
+        <v>4974234619023</v>
       </c>
       <c r="E6" s="1" t="n">
-        <v>1001006</v>
+        <v>1001002</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G6" s="2" t="n">
         <v>458</v>
       </c>
+      <c r="H6" s="1" t="n">
+        <v>5845704</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B7" s="1" t="n">
         <v>10</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>4974234615001</v>
+        <v>4974234618002</v>
       </c>
       <c r="E7" s="1" t="n">
-        <v>1001003</v>
+        <v>1001006</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G7" s="2" t="n">
         <v>458</v>
       </c>
+      <c r="H7" s="1" t="n">
+        <v>6110923</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B8" s="1" t="n">
         <v>10</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" s="4" t="n">
-        <v>4974234611010</v>
+        <v>4974234100040</v>
       </c>
       <c r="E8" s="1" t="n">
-        <v>1001004</v>
+        <v>1001009</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G8" s="2" t="n">
         <v>458</v>
       </c>
+      <c r="H8" s="1" t="n">
+        <v>18276036</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B9" s="1" t="n">
         <v>10</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" s="4" t="n">
-        <v>4974234616008</v>
+        <v>4974234615001</v>
       </c>
       <c r="E9" s="1" t="n">
-        <v>1001005</v>
+        <v>1001003</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G9" s="2" t="n">
         <v>458</v>
       </c>
+      <c r="H9" s="1" t="n">
+        <v>5845705</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="5" t="s">
-        <v>22</v>
+      <c r="A10" s="0" t="s">
+        <v>23</v>
       </c>
       <c r="B10" s="1" t="n">
         <v>10</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D10" s="4" t="n">
-        <v>4974234619092</v>
+        <v>4974234611010</v>
       </c>
       <c r="E10" s="1" t="n">
-        <v>1002026</v>
+        <v>1001004</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>392</v>
+        <v>458</v>
+      </c>
+      <c r="H10" s="1" t="n">
+        <v>5845706</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -627,19 +684,19 @@
         <v>10</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D11" s="4" t="n">
-        <v>4974234600472</v>
+        <v>4974234619221</v>
       </c>
       <c r="E11" s="1" t="n">
-        <v>1002022</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>11</v>
+        <v>1001012</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>392</v>
+        <v>458</v>
+      </c>
+      <c r="H11" s="1" t="n">
+        <v>29693437</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -650,19 +707,22 @@
         <v>10</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D12" s="4" t="n">
-        <v>4974234600465</v>
+        <v>4974234616008</v>
       </c>
       <c r="E12" s="1" t="n">
-        <v>1002007</v>
+        <v>1001005</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>26</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>392</v>
+        <v>458</v>
+      </c>
+      <c r="H12" s="1" t="n">
+        <v>5845707</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -673,19 +733,22 @@
         <v>10</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D13" s="4" t="n">
-        <v>4974234101078</v>
+        <v>4974234100064</v>
       </c>
       <c r="E13" s="1" t="n">
-        <v>1002008</v>
+        <v>1001010</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>392</v>
+        <v>458</v>
+      </c>
+      <c r="H13" s="1" t="n">
+        <v>18277545</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -696,243 +759,270 @@
         <v>10</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D14" s="4" t="n">
-        <v>4974234580521</v>
+        <v>4974234619009</v>
       </c>
       <c r="E14" s="1" t="n">
-        <v>1002009</v>
+        <v>1001011</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>392</v>
+        <v>458</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
-        <v>29</v>
+      <c r="A15" s="5" t="s">
+        <v>30</v>
       </c>
       <c r="B15" s="1" t="n">
         <v>10</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="D15" s="4" t="n">
-        <v>4974234522057</v>
+        <v>4974234619092</v>
       </c>
       <c r="E15" s="1" t="n">
-        <v>1002016</v>
+        <v>1002026</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="G15" s="2" t="n">
         <v>392</v>
+      </c>
+      <c r="H15" s="1" t="n">
+        <v>11259810</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B16" s="1" t="n">
         <v>10</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="D16" s="4" t="n">
-        <v>4974234522040</v>
+        <v>4974234522101</v>
       </c>
       <c r="E16" s="1" t="n">
-        <v>1002017</v>
+        <v>1002022</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G16" s="2" t="n">
         <v>392</v>
+      </c>
+      <c r="H16" s="1" t="n">
+        <v>5845716</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B17" s="1" t="n">
         <v>10</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="D17" s="4" t="n">
-        <v>4974234101405</v>
+        <v>4974234600465</v>
       </c>
       <c r="E17" s="1" t="n">
-        <v>1002004</v>
+        <v>1002007</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="G17" s="2" t="n">
         <v>392</v>
+      </c>
+      <c r="H17" s="1" t="n">
+        <v>5845711</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B18" s="1" t="n">
         <v>10</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="D18" s="4" t="n">
-        <v>4974234101283</v>
+        <v>4974234101078</v>
       </c>
       <c r="E18" s="1" t="n">
-        <v>1002005</v>
+        <v>1002008</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="G18" s="2" t="n">
         <v>392</v>
+      </c>
+      <c r="H18" s="1" t="n">
+        <v>5845712</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B19" s="1" t="n">
         <v>10</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="D19" s="4" t="n">
-        <v>4974234101351</v>
+        <v>4974234580521</v>
       </c>
       <c r="E19" s="1" t="n">
-        <v>1002006</v>
+        <v>1002009</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="G19" s="2" t="n">
         <v>392</v>
+      </c>
+      <c r="H19" s="1" t="n">
+        <v>6110924</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B20" s="1" t="n">
         <v>10</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="D20" s="4" t="n">
-        <v>4974234101337</v>
+        <v>4974234522057</v>
       </c>
       <c r="E20" s="1" t="n">
-        <v>1002003</v>
+        <v>1002016</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G20" s="2" t="n">
         <v>392</v>
       </c>
+      <c r="H20" s="1" t="n">
+        <v>6110928</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="6" t="s">
-        <v>36</v>
+      <c r="A21" s="0" t="s">
+        <v>38</v>
       </c>
       <c r="B21" s="1" t="n">
         <v>10</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="D21" s="4" t="n">
-        <v>4974234101320</v>
+        <v>4974234522040</v>
       </c>
       <c r="E21" s="1" t="n">
-        <v>1002024</v>
+        <v>1002017</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="G21" s="2" t="n">
         <v>392</v>
+      </c>
+      <c r="H21" s="1" t="n">
+        <v>6110929</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B22" s="1" t="n">
         <v>10</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="D22" s="4" t="n">
-        <v>4974234101238</v>
+        <v>4974234101405</v>
       </c>
       <c r="E22" s="1" t="n">
-        <v>1002001</v>
+        <v>1002004</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G22" s="2" t="n">
         <v>392</v>
+      </c>
+      <c r="H22" s="1" t="n">
+        <v>5845708</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B23" s="1" t="n">
         <v>10</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="D23" s="4" t="n">
-        <v>4974234101153</v>
+        <v>4974234101283</v>
       </c>
       <c r="E23" s="1" t="n">
-        <v>1002002</v>
+        <v>1002005</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="G23" s="2" t="n">
         <v>392</v>
+      </c>
+      <c r="H23" s="1" t="n">
+        <v>5845709</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B24" s="1" t="n">
         <v>10</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="D24" s="4" t="n">
-        <v>4974234020997</v>
+        <v>4974234101351</v>
       </c>
       <c r="E24" s="1" t="n">
-        <v>1002011</v>
+        <v>1002006</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>41</v>
@@ -940,74 +1030,83 @@
       <c r="G24" s="2" t="n">
         <v>392</v>
       </c>
+      <c r="H24" s="1" t="n">
+        <v>5845710</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B25" s="1" t="n">
         <v>10</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="D25" s="4" t="n">
-        <v>4974234021031</v>
+        <v>4974234101337</v>
       </c>
       <c r="E25" s="1" t="n">
-        <v>1002010</v>
+        <v>1002003</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="G25" s="2" t="n">
         <v>392</v>
       </c>
+      <c r="H25" s="1" t="n">
+        <v>6110925</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="6" t="s">
-        <v>43</v>
+      <c r="A26" s="5" t="s">
+        <v>44</v>
       </c>
       <c r="B26" s="1" t="n">
         <v>10</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="D26" s="4" t="n">
-        <v>4974234021024</v>
+        <v>4974234101320</v>
       </c>
       <c r="E26" s="1" t="n">
-        <v>1002025</v>
+        <v>1002024</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G26" s="2" t="n">
         <v>392</v>
+      </c>
+      <c r="H26" s="1" t="n">
+        <v>9981636</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B27" s="1" t="n">
         <v>10</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="D27" s="4" t="n">
-        <v>4974234550012</v>
+        <v>4974234101245</v>
       </c>
       <c r="E27" s="1" t="n">
-        <v>1002018</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>46</v>
+        <v>1002029</v>
       </c>
       <c r="G27" s="2" t="n">
         <v>392</v>
+      </c>
+      <c r="H27" s="1" t="n">
+        <v>18277931</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1018,19 +1117,22 @@
         <v>10</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="D28" s="4" t="n">
-        <v>4974234021048</v>
+        <v>4974234101238</v>
       </c>
       <c r="E28" s="1" t="n">
-        <v>1002021</v>
+        <v>1002001</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="G28" s="2" t="n">
         <v>392</v>
+      </c>
+      <c r="H28" s="1" t="n">
+        <v>6110927</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1041,19 +1143,19 @@
         <v>10</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="D29" s="4" t="n">
-        <v>4974234020973</v>
+        <v>4974234101146</v>
       </c>
       <c r="E29" s="1" t="n">
-        <v>1002019</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>46</v>
+        <v>1002030</v>
       </c>
       <c r="G29" s="2" t="n">
         <v>392</v>
+      </c>
+      <c r="H29" s="1" t="n">
+        <v>29694456</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1064,19 +1166,22 @@
         <v>10</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="D30" s="4" t="n">
-        <v>4974234062195</v>
+        <v>4974234101153</v>
       </c>
       <c r="E30" s="1" t="n">
-        <v>1002020</v>
+        <v>1002002</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="G30" s="2" t="n">
         <v>392</v>
+      </c>
+      <c r="H30" s="1" t="n">
+        <v>6110926</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1087,105 +1192,117 @@
         <v>10</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="D31" s="4" t="n">
-        <v>4974234101016</v>
+        <v>4974234020997</v>
       </c>
       <c r="E31" s="1" t="n">
-        <v>1002027</v>
+        <v>1002011</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="G31" s="2" t="n">
         <v>392</v>
+      </c>
+      <c r="H31" s="1" t="n">
+        <v>5845714</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="B32" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D32" s="4" t="n">
+        <v>4974234021031</v>
+      </c>
+      <c r="E32" s="1" t="n">
+        <v>1002010</v>
+      </c>
+      <c r="F32" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B32" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D32" s="4" t="n">
-        <v>4974234101023</v>
-      </c>
-      <c r="E32" s="1" t="n">
-        <v>1002023</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>41</v>
-      </c>
       <c r="G32" s="2" t="n">
         <v>392</v>
       </c>
+      <c r="H32" s="1" t="n">
+        <v>5845713</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
-        <v>52</v>
+      <c r="A33" s="5" t="s">
+        <v>53</v>
       </c>
       <c r="B33" s="1" t="n">
         <v>10</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="D33" s="4" t="n">
-        <v>4974234101047</v>
+        <v>4974234021024</v>
       </c>
       <c r="E33" s="1" t="n">
-        <v>1002028</v>
+        <v>1002025</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="G33" s="2" t="n">
         <v>392</v>
+      </c>
+      <c r="H33" s="1" t="n">
+        <v>9981637</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B34" s="1" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="D34" s="4" t="n">
-        <v>4974234522002</v>
+        <v>4974234550012</v>
       </c>
       <c r="E34" s="1" t="n">
-        <v>1003002</v>
+        <v>1002018</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G34" s="2" t="n">
         <v>392</v>
+      </c>
+      <c r="H34" s="1" t="n">
+        <v>8571745</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B35" s="1" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="D35" s="4" t="n">
-        <v>4974234996513</v>
+        <v>4974234021048</v>
       </c>
       <c r="E35" s="1" t="n">
-        <v>1003001</v>
+        <v>1002021</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>56</v>
@@ -1193,22 +1310,25 @@
       <c r="G35" s="2" t="n">
         <v>392</v>
       </c>
+      <c r="H35" s="1" t="n">
+        <v>8571747</v>
+      </c>
     </row>
     <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B36" s="1" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="D36" s="4" t="n">
-        <v>4974234996643</v>
+        <v>4974234020973</v>
       </c>
       <c r="E36" s="1" t="n">
-        <v>1003004</v>
+        <v>1002019</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>56</v>
@@ -1216,120 +1336,138 @@
       <c r="G36" s="2" t="n">
         <v>392</v>
       </c>
+      <c r="H36" s="1" t="n">
+        <v>18277903</v>
+      </c>
     </row>
     <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B37" s="1" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="D37" s="4" t="n">
-        <v>851674003084</v>
+        <v>4974234062195</v>
       </c>
       <c r="E37" s="1" t="n">
-        <v>3001007</v>
+        <v>1002020</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="G37" s="2" t="n">
-        <v>840</v>
+        <v>392</v>
+      </c>
+      <c r="H37" s="1" t="n">
+        <v>8571746</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B38" s="1" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="D38" s="4" t="n">
-        <v>851674003060</v>
+        <v>4974234101016</v>
       </c>
       <c r="E38" s="1" t="n">
-        <v>3001006</v>
+        <v>1002027</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="G38" s="2" t="n">
-        <v>840</v>
+        <v>392</v>
+      </c>
+      <c r="H38" s="1" t="n">
+        <v>12246478</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B39" s="1" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="D39" s="4" t="n">
-        <v>851674003008</v>
+        <v>4974234101023</v>
       </c>
       <c r="E39" s="1" t="n">
-        <v>3001002</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>60</v>
+        <v>1002023</v>
+      </c>
+      <c r="F39" s="6" t="s">
+        <v>51</v>
       </c>
       <c r="G39" s="2" t="n">
-        <v>840</v>
+        <v>392</v>
+      </c>
+      <c r="H39" s="1" t="n">
+        <v>8571748</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B40" s="1" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="D40" s="4" t="n">
-        <v>851674003015</v>
+        <v>4974234101047</v>
       </c>
       <c r="E40" s="1" t="n">
-        <v>3001001</v>
+        <v>1002028</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="G40" s="2" t="n">
-        <v>840</v>
+        <v>392</v>
+      </c>
+      <c r="H40" s="1" t="n">
+        <v>12246479</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B41" s="1" t="n">
         <v>20</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="D41" s="4" t="n">
-        <v>851674003121</v>
+        <v>4974234522002</v>
       </c>
       <c r="E41" s="1" t="n">
-        <v>3001003</v>
+        <v>1003002</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="G41" s="2" t="n">
-        <v>840</v>
+        <v>392</v>
+      </c>
+      <c r="H41" s="1" t="n">
+        <v>9981638</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1340,48 +1478,265 @@
         <v>20</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="D42" s="4" t="n">
-        <v>851674003039</v>
+        <v>4974234996513</v>
       </c>
       <c r="E42" s="1" t="n">
-        <v>3001004</v>
+        <v>1003001</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="G42" s="2" t="n">
-        <v>840</v>
+        <v>392</v>
+      </c>
+      <c r="H42" s="1" t="n">
+        <v>5845715</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B43" s="1" t="n">
         <v>20</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="D43" s="4" t="n">
+        <v>4974234996643</v>
+      </c>
+      <c r="E43" s="1" t="n">
+        <v>1003004</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G43" s="2" t="n">
+        <v>392</v>
+      </c>
+      <c r="H43" s="1" t="n">
+        <v>8571749</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="B44" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D44" s="4" t="n">
+        <v>851674003084</v>
+      </c>
+      <c r="E44" s="1" t="n">
+        <v>3001007</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G44" s="2" t="n">
+        <v>840</v>
+      </c>
+      <c r="H44" s="1" t="n">
+        <v>9981639</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="B45" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D45" s="4" t="n">
+        <v>851674003060</v>
+      </c>
+      <c r="E45" s="1" t="n">
+        <v>3001006</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G45" s="2" t="n">
+        <v>840</v>
+      </c>
+      <c r="H45" s="1" t="n">
+        <v>9981640</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="B46" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D46" s="4" t="n">
+        <v>851674003008</v>
+      </c>
+      <c r="E46" s="1" t="n">
+        <v>3001002</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G46" s="2" t="n">
+        <v>840</v>
+      </c>
+      <c r="H46" s="1" t="n">
+        <v>5615862</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="B47" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D47" s="4" t="n">
+        <v>851674003015</v>
+      </c>
+      <c r="E47" s="1" t="n">
+        <v>3001001</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G47" s="2" t="n">
+        <v>840</v>
+      </c>
+      <c r="H47" s="1" t="n">
+        <v>5615861</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="B48" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D48" s="4" t="n">
+        <v>851674003121</v>
+      </c>
+      <c r="E48" s="1" t="n">
+        <v>3001003</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G48" s="2" t="n">
+        <v>840</v>
+      </c>
+      <c r="H48" s="1" t="n">
+        <v>5615863</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="B49" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D49" s="4" t="n">
+        <v>851674003039</v>
+      </c>
+      <c r="E49" s="1" t="n">
+        <v>3001004</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G49" s="2" t="n">
+        <v>840</v>
+      </c>
+      <c r="H49" s="1" t="n">
+        <v>5615864</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="B50" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D50" s="4" t="n">
         <v>851674003053</v>
       </c>
-      <c r="E43" s="1" t="n">
+      <c r="E50" s="1" t="n">
         <v>3001005</v>
       </c>
-      <c r="F43" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="G43" s="2" t="n">
+      <c r="F50" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G50" s="2" t="n">
         <v>840</v>
       </c>
+      <c r="H50" s="1" t="n">
+        <v>5615865</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="B51" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D51" s="4" t="n">
+        <v>4974234996674</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G51" s="2" t="n">
+        <v>392</v>
+      </c>
+      <c r="H51" s="1" t="n">
+        <v>18760342</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D54" s="4"/>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D55" s="4"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
